--- a/scenario work/add_storage_tech/GM_11R_add_storage_simple_mode.xlsx
+++ b/scenario work/add_storage_tech/GM_11R_add_storage_simple_mode.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zakeri\Documents\Github\time_clustering\scenario work\add_storage_tech\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zakeri\Github\time_clustering\scenario work\add_storage_tech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F98A84-E412-4924-ACC4-465DAC4FD765}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{65EAE711-2220-40CC-8F57-308549F03C83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="19935" windowHeight="10875" xr2:uid="{0607A5FA-1794-45FA-8D2B-86402EEF1866}"/>
+    <workbookView xWindow="24" yWindow="1356" windowWidth="23016" windowHeight="11604" xr2:uid="{0607A5FA-1794-45FA-8D2B-86402EEF1866}"/>
   </bookViews>
   <sheets>
     <sheet name="storage" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="55">
   <si>
     <t>section</t>
   </si>
@@ -96,6 +96,12 @@
     <t>charger</t>
   </si>
   <si>
+    <t>river_dist</t>
+  </si>
+  <si>
+    <t>dam_hydro</t>
+  </si>
+  <si>
     <t>yes</t>
   </si>
   <si>
@@ -111,9 +117,15 @@
     <t>discharger</t>
   </si>
   <si>
+    <t>spillway_hydro</t>
+  </si>
+  <si>
     <t>secondary</t>
   </si>
   <si>
+    <t>dam_sphs</t>
+  </si>
+  <si>
     <t>storage_sphs</t>
   </si>
   <si>
@@ -174,37 +186,19 @@
     <t>discharge</t>
   </si>
   <si>
+    <t>pump_turb_sphs</t>
+  </si>
+  <si>
     <t>Wonderland</t>
   </si>
   <si>
+    <t>pump_turb_sphs2</t>
+  </si>
+  <si>
     <t>storage_hydro/final</t>
   </si>
   <si>
     <t>secondary/final</t>
-  </si>
-  <si>
-    <t>hydro_turb</t>
-  </si>
-  <si>
-    <t>hydro_spillway</t>
-  </si>
-  <si>
-    <t>hydro_inflow</t>
-  </si>
-  <si>
-    <t>sphs_dam</t>
-  </si>
-  <si>
-    <t>sphs_pump-turb</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>hydro_dam,M1</t>
-  </si>
-  <si>
-    <t>sphs_dam,M1/hydro_dam,M1</t>
   </si>
 </sst>
 </file>
@@ -624,22 +618,23 @@
   <dimension ref="A1:AB8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.85546875" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" style="10" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" style="10" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5546875" customWidth="1"/>
     <col min="9" max="9" width="24" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.5546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="24" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" customWidth="1"/>
+    <col min="19" max="19" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" s="8" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -647,7 +642,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>2</v>
@@ -686,7 +681,7 @@
         <v>13</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="Q1" s="12" t="s">
         <v>14</v>
@@ -704,7 +699,7 @@
         <v>18</v>
       </c>
       <c r="V1" s="12" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="W1" s="9"/>
       <c r="X1" s="9"/>
@@ -713,50 +708,50 @@
       <c r="AA1" s="9"/>
       <c r="AB1" s="9"/>
     </row>
-    <row r="2" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="3"/>
       <c r="K2" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M2" s="3">
         <v>1</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="O2" s="1"/>
       <c r="Q2" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="R2" s="10" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="S2" s="10" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="T2" s="1">
         <v>1</v>
@@ -765,7 +760,7 @@
         <v>0</v>
       </c>
       <c r="V2" s="12" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="W2" s="12"/>
       <c r="X2" s="12"/>
@@ -774,56 +769,56 @@
       <c r="AA2" s="12"/>
       <c r="AB2" s="12"/>
     </row>
-    <row r="3" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J3" s="3">
         <v>1</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M3" s="3">
         <v>1</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="O3" s="1"/>
       <c r="Q3" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="R3" s="10" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="S3" s="10" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="T3" s="1">
         <v>1</v>
@@ -832,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="V3" s="12" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="W3" s="12"/>
       <c r="X3" s="12"/>
@@ -841,61 +836,61 @@
       <c r="AA3" s="12"/>
       <c r="AB3" s="12"/>
     </row>
-    <row r="4" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J4" s="3">
         <v>40</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="R4" s="10" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S4" s="10" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="T4" s="1">
         <v>1</v>
@@ -904,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="V4" s="12" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="W4" s="12"/>
       <c r="X4" s="12"/>
@@ -913,56 +908,56 @@
       <c r="AA4" s="12"/>
       <c r="AB4" s="12"/>
     </row>
-    <row r="5" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J5" s="3">
         <v>1</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="M5" s="3">
         <v>1</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="O5" s="1"/>
       <c r="Q5" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="R5" s="10" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="S5" s="10" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="T5" s="1">
         <v>1</v>
@@ -971,7 +966,7 @@
         <v>0</v>
       </c>
       <c r="V5" s="12" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="W5" s="12"/>
       <c r="X5" s="12"/>
@@ -980,56 +975,56 @@
       <c r="AA5" s="12"/>
       <c r="AB5" s="12"/>
     </row>
-    <row r="6" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="10" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M6" s="6">
         <v>20</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="O6" s="1"/>
       <c r="Q6" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="R6" s="10" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S6" s="10" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="T6" s="10">
         <v>1</v>
@@ -1038,60 +1033,65 @@
         <v>0</v>
       </c>
       <c r="V6" s="12" t="s">
-        <v>32</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="12"/>
+      <c r="AB6" s="12"/>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J7" s="6">
         <v>1</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M7" s="6">
         <v>1</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="O7" s="1"/>
-      <c r="P7" s="10"/>
       <c r="Q7" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="R7" s="10" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="S7" s="10" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="T7" s="10">
         <v>1</v>
@@ -1100,62 +1100,68 @@
         <v>0</v>
       </c>
       <c r="V7" s="12" t="s">
-        <v>32</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="W7" s="12"/>
+      <c r="X7" s="12"/>
+      <c r="Y7" s="12"/>
+      <c r="Z7" s="12"/>
+      <c r="AA7" s="12"/>
+      <c r="AB7" s="12"/>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="10" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J8" s="6">
         <v>20</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="O8" s="1"/>
       <c r="P8" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="R8" s="10" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S8" s="10" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="T8" s="10">
         <v>1</v>
@@ -1164,7 +1170,7 @@
         <v>0</v>
       </c>
       <c r="V8" s="12" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
